--- a/backend/income/management/documents/t_Aylik_Mkt_Gelir_2407.xlsx
+++ b/backend/income/management/documents/t_Aylik_Mkt_Gelir_2407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahir\OneDrive\Desktop\Codes\YKHT\backend\income\management\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854DB36-9F5A-47DD-A0EF-15A33672CA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC07CB-0E42-4E97-9262-0B812B06560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_Aylik_Mkt_Gelir" sheetId="1" r:id="rId1"/>
@@ -728,10 +728,10 @@
   <dimension ref="A1:BO571"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AT44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
+      <selection pane="bottomRight" activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
